--- a/data/pca/factorExposure/factorExposure_2011-04-27.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-04-27.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,21 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +713,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:L104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +738,63 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>-0.006009334610350626</v>
+        <v>-0.011996950724679</v>
       </c>
       <c r="C2">
-        <v>8.540531023632776e-05</v>
+        <v>0.002154165973475007</v>
       </c>
       <c r="D2">
-        <v>-0.05101585836982341</v>
+        <v>0.02820185802064275</v>
       </c>
       <c r="E2">
-        <v>0.003498742953231252</v>
+        <v>0.01427408502000683</v>
       </c>
       <c r="F2">
-        <v>-0.01465424436893064</v>
+        <v>-0.002459759994350327</v>
       </c>
       <c r="G2">
-        <v>-0.01984368167196513</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.005596335288282471</v>
+      </c>
+      <c r="H2">
+        <v>-0.02467180830118688</v>
+      </c>
+      <c r="I2">
+        <v>0.05194541643177726</v>
+      </c>
+      <c r="J2">
+        <v>0.05331398768065839</v>
+      </c>
+      <c r="K2">
+        <v>-0.0319343855926659</v>
+      </c>
+      <c r="L2">
+        <v>0.003324365523614437</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +814,63 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>-0.098547030091599</v>
+        <v>-0.1112769784566341</v>
       </c>
       <c r="C4">
-        <v>0.03814428875474041</v>
+        <v>0.064001902158032</v>
       </c>
       <c r="D4">
-        <v>-0.04046197352090999</v>
+        <v>0.02326113717611446</v>
       </c>
       <c r="E4">
-        <v>-0.0581591157944937</v>
+        <v>0.01866551953892253</v>
       </c>
       <c r="F4">
-        <v>-0.03645486592263746</v>
+        <v>-0.159411199745846</v>
       </c>
       <c r="G4">
-        <v>-0.02952385301997444</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.01498058968509399</v>
+      </c>
+      <c r="H4">
+        <v>-0.02617992268306486</v>
+      </c>
+      <c r="I4">
+        <v>-0.03029745869276142</v>
+      </c>
+      <c r="J4">
+        <v>-0.009314693259604354</v>
+      </c>
+      <c r="K4">
+        <v>0.03634433502547543</v>
+      </c>
+      <c r="L4">
+        <v>-0.08090717175409659</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +890,443 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>-0.1292967690578531</v>
+        <v>-0.1303302412689794</v>
       </c>
       <c r="C6">
-        <v>0.03478954591160048</v>
+        <v>0.03545817647305503</v>
       </c>
       <c r="D6">
-        <v>-0.03562847036984735</v>
+        <v>-0.004057179037830456</v>
       </c>
       <c r="E6">
-        <v>-0.006681066648089171</v>
+        <v>0.003606380246795198</v>
       </c>
       <c r="F6">
-        <v>0.1526543015809097</v>
+        <v>0.01353513062356272</v>
       </c>
       <c r="G6">
-        <v>0.1365926813643864</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.06744772963787726</v>
+      </c>
+      <c r="H6">
+        <v>-0.09661842441767057</v>
+      </c>
+      <c r="I6">
+        <v>-0.3063726217982335</v>
+      </c>
+      <c r="J6">
+        <v>-0.2886131583957832</v>
+      </c>
+      <c r="K6">
+        <v>-0.2050937984101636</v>
+      </c>
+      <c r="L6">
+        <v>-0.1029611979588018</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>-0.08603723109540078</v>
+        <v>-0.08110592496535191</v>
       </c>
       <c r="C7">
-        <v>0.04514665367925221</v>
+        <v>0.07063794360441426</v>
       </c>
       <c r="D7">
-        <v>-0.04692341409140335</v>
+        <v>0.03450913603841255</v>
       </c>
       <c r="E7">
-        <v>-0.02961994155726787</v>
+        <v>0.01673429878244321</v>
       </c>
       <c r="F7">
-        <v>0.0273347408459709</v>
+        <v>-0.03774588118352049</v>
       </c>
       <c r="G7">
-        <v>-0.04252495996417229</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.005762455657166194</v>
+      </c>
+      <c r="H7">
+        <v>0.02198780195099686</v>
+      </c>
+      <c r="I7">
+        <v>-0.002142119279517735</v>
+      </c>
+      <c r="J7">
+        <v>0.03793619897849109</v>
+      </c>
+      <c r="K7">
+        <v>0.1134787482812686</v>
+      </c>
+      <c r="L7">
+        <v>-0.05161069267798986</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>-0.04671272991385948</v>
+        <v>-0.04947041895774433</v>
       </c>
       <c r="C8">
-        <v>-0.01026262789316242</v>
+        <v>0.01999307470290377</v>
       </c>
       <c r="D8">
-        <v>-0.07635717002298854</v>
+        <v>0.005988239857371869</v>
       </c>
       <c r="E8">
-        <v>-0.08376121313046021</v>
+        <v>0.016440059111091</v>
       </c>
       <c r="F8">
-        <v>-0.05118833610908208</v>
+        <v>-0.1424670836556929</v>
       </c>
       <c r="G8">
-        <v>-0.116722089168894</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.007902214366389305</v>
+      </c>
+      <c r="H8">
+        <v>-0.06319707822580016</v>
+      </c>
+      <c r="I8">
+        <v>-0.04436159572839437</v>
+      </c>
+      <c r="J8">
+        <v>0.01658908007411948</v>
+      </c>
+      <c r="K8">
+        <v>0.01983835010076247</v>
+      </c>
+      <c r="L8">
+        <v>-0.1251565127763611</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>-0.087545784872432</v>
+        <v>-0.0857343874108169</v>
       </c>
       <c r="C9">
-        <v>0.03762056752713203</v>
+        <v>0.05818367989861494</v>
       </c>
       <c r="D9">
-        <v>-0.03779266439352641</v>
+        <v>0.02166368337204494</v>
       </c>
       <c r="E9">
-        <v>-0.038739152235583</v>
+        <v>-0.001338656282463831</v>
       </c>
       <c r="F9">
-        <v>-0.01867806525697074</v>
+        <v>-0.1408340683068003</v>
       </c>
       <c r="G9">
-        <v>-0.0533707221823707</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.01074687146921642</v>
+      </c>
+      <c r="H9">
+        <v>-0.004418090014515646</v>
+      </c>
+      <c r="I9">
+        <v>-0.03011182431616527</v>
+      </c>
+      <c r="J9">
+        <v>0.009375547879425574</v>
+      </c>
+      <c r="K9">
+        <v>0.0093010590763998</v>
+      </c>
+      <c r="L9">
+        <v>-0.05904638620038451</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B10">
-        <v>-0.04319325676309538</v>
+        <v>-0.1025194530054412</v>
       </c>
       <c r="C10">
-        <v>-0.1521648740186612</v>
+        <v>-0.1641089196384042</v>
       </c>
       <c r="D10">
-        <v>-0.09195041410662838</v>
+        <v>0.05971178320496854</v>
       </c>
       <c r="E10">
-        <v>-0.02535702033154637</v>
+        <v>0.02979268926775111</v>
       </c>
       <c r="F10">
-        <v>0.04651183137820179</v>
+        <v>0.01221288586982342</v>
       </c>
       <c r="G10">
-        <v>-0.03188573560398052</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.009668507100931523</v>
+      </c>
+      <c r="H10">
+        <v>0.04861680623545983</v>
+      </c>
+      <c r="I10">
+        <v>-0.01604422553052687</v>
+      </c>
+      <c r="J10">
+        <v>-0.04514642479645434</v>
+      </c>
+      <c r="K10">
+        <v>0.04844955466782963</v>
+      </c>
+      <c r="L10">
+        <v>0.03263544890086107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B11">
-        <v>-0.07367878714644203</v>
+        <v>-0.07640535968776167</v>
       </c>
       <c r="C11">
-        <v>0.06168444923787062</v>
+        <v>0.07100247265934155</v>
       </c>
       <c r="D11">
-        <v>-0.003372824406864497</v>
+        <v>0.006706577377562539</v>
       </c>
       <c r="E11">
-        <v>0.005602282483608971</v>
+        <v>-0.02486057327136979</v>
       </c>
       <c r="F11">
-        <v>-0.02068213193792997</v>
+        <v>-0.1339434813813654</v>
       </c>
       <c r="G11">
-        <v>-0.1492439927042409</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.01358382901984433</v>
+      </c>
+      <c r="H11">
+        <v>0.05482513321246055</v>
+      </c>
+      <c r="I11">
+        <v>0.03513102313113306</v>
+      </c>
+      <c r="J11">
+        <v>0.07487345710441755</v>
+      </c>
+      <c r="K11">
+        <v>-0.04544172505252138</v>
+      </c>
+      <c r="L11">
+        <v>0.01144733103709318</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B12">
-        <v>-0.06834777118217145</v>
+        <v>-0.06966536544117688</v>
       </c>
       <c r="C12">
-        <v>0.03695570685554773</v>
+        <v>0.06199713344186852</v>
       </c>
       <c r="D12">
-        <v>0.003259549118411724</v>
+        <v>0.0110903626574222</v>
       </c>
       <c r="E12">
-        <v>-0.03480451623018308</v>
+        <v>-0.02485371590401381</v>
       </c>
       <c r="F12">
-        <v>-0.007938053398759092</v>
+        <v>-0.1411221157863187</v>
       </c>
       <c r="G12">
-        <v>-0.1447303909747214</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.02253552205252107</v>
+      </c>
+      <c r="H12">
+        <v>0.03889616094371611</v>
+      </c>
+      <c r="I12">
+        <v>-0.006975813243401083</v>
+      </c>
+      <c r="J12">
+        <v>0.09301705339484061</v>
+      </c>
+      <c r="K12">
+        <v>-0.0597897404299772</v>
+      </c>
+      <c r="L12">
+        <v>-0.02451916794817619</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B13">
-        <v>-0.06353758636361695</v>
+        <v>-0.04148783603808793</v>
       </c>
       <c r="C13">
-        <v>0.007137333963866447</v>
+        <v>0.02719843070824993</v>
       </c>
       <c r="D13">
-        <v>-0.01120163778647789</v>
+        <v>0.006950260598542301</v>
       </c>
       <c r="E13">
-        <v>-0.04039155366014951</v>
+        <v>0.02299240795080805</v>
       </c>
       <c r="F13">
-        <v>-0.04841656161958319</v>
+        <v>-0.04522505334514725</v>
       </c>
       <c r="G13">
-        <v>-0.03805842818367343</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.008193468162373234</v>
+      </c>
+      <c r="H13">
+        <v>-0.0150170606056679</v>
+      </c>
+      <c r="I13">
+        <v>-0.03469477183030851</v>
+      </c>
+      <c r="J13">
+        <v>-0.0005927079084588245</v>
+      </c>
+      <c r="K13">
+        <v>0.04031072099887919</v>
+      </c>
+      <c r="L13">
+        <v>-0.004811983833555598</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B14">
-        <v>-0.05148565072892029</v>
+        <v>-0.04272307244144736</v>
       </c>
       <c r="C14">
-        <v>0.005002753567916737</v>
+        <v>0.02274693422762423</v>
       </c>
       <c r="D14">
-        <v>-0.02987722962118421</v>
+        <v>0.0106675969409356</v>
       </c>
       <c r="E14">
-        <v>-0.02271738468708651</v>
+        <v>-0.01182852313054391</v>
       </c>
       <c r="F14">
-        <v>0.003502774934027601</v>
+        <v>-0.06002956523326818</v>
       </c>
       <c r="G14">
-        <v>-0.03843345364048312</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.009163687334053944</v>
+      </c>
+      <c r="H14">
+        <v>-0.02310529072150947</v>
+      </c>
+      <c r="I14">
+        <v>-0.0004702405764242788</v>
+      </c>
+      <c r="J14">
+        <v>-0.05319986056717552</v>
+      </c>
+      <c r="K14">
+        <v>0.05155827001938496</v>
+      </c>
+      <c r="L14">
+        <v>-0.1070917917083651</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B15">
-        <v>-0.03727299235412354</v>
+        <v>-0.02354755426643295</v>
       </c>
       <c r="C15">
-        <v>-0.008002185422881744</v>
+        <v>0.01262884626612609</v>
       </c>
       <c r="D15">
-        <v>-0.01327051665920083</v>
+        <v>-0.004826023216155466</v>
       </c>
       <c r="E15">
-        <v>-0.007969971235180911</v>
+        <v>0.04795667857823002</v>
       </c>
       <c r="F15">
-        <v>-0.01537208905228871</v>
+        <v>-0.008249901057850905</v>
       </c>
       <c r="G15">
-        <v>-0.01549077401884118</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>-0.03379182058151186</v>
+      </c>
+      <c r="H15">
+        <v>0.003357436101467074</v>
+      </c>
+      <c r="I15">
+        <v>-0.0141950024816788</v>
+      </c>
+      <c r="J15">
+        <v>-0.04988122102393092</v>
+      </c>
+      <c r="K15">
+        <v>0.06134728239982181</v>
+      </c>
+      <c r="L15">
+        <v>-0.0235778830123507</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B16">
-        <v>-0.07581247121407624</v>
+        <v>-0.07958110878653001</v>
       </c>
       <c r="C16">
-        <v>0.07245157201272459</v>
+        <v>0.07327393729707847</v>
       </c>
       <c r="D16">
-        <v>-0.01681422127462821</v>
+        <v>0.002277148888855211</v>
       </c>
       <c r="E16">
-        <v>-0.03525857104826546</v>
+        <v>-0.01789900643510622</v>
       </c>
       <c r="F16">
-        <v>-0.04505915963392569</v>
+        <v>-0.1296496719105633</v>
       </c>
       <c r="G16">
-        <v>-0.1179438743321675</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.02184489384570346</v>
+      </c>
+      <c r="H16">
+        <v>0.04196109852539862</v>
+      </c>
+      <c r="I16">
+        <v>0.03221534520984978</v>
+      </c>
+      <c r="J16">
+        <v>0.08905017023089842</v>
+      </c>
+      <c r="K16">
+        <v>-0.04482973116811348</v>
+      </c>
+      <c r="L16">
+        <v>-0.02595395536635143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1346,25 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1384,25 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1422,291 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B20">
-        <v>-0.0527807263052399</v>
+        <v>-0.04610707690514084</v>
       </c>
       <c r="C20">
-        <v>0.01944532604986978</v>
+        <v>0.03723889974626635</v>
       </c>
       <c r="D20">
-        <v>-0.01480416993362649</v>
+        <v>0.01536733767147388</v>
       </c>
       <c r="E20">
-        <v>-0.0357449344617806</v>
+        <v>0.02251637314905069</v>
       </c>
       <c r="F20">
-        <v>-0.02548344691964068</v>
+        <v>-0.06687631077256219</v>
       </c>
       <c r="G20">
-        <v>-0.08732146923553143</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.01176125774944902</v>
+      </c>
+      <c r="H20">
+        <v>-0.002169489019286375</v>
+      </c>
+      <c r="I20">
+        <v>-0.03070890958851851</v>
+      </c>
+      <c r="J20">
+        <v>0.006689436133938726</v>
+      </c>
+      <c r="K20">
+        <v>0.05258856841900563</v>
+      </c>
+      <c r="L20">
+        <v>-0.05294501904143698</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B21">
-        <v>-0.02371562202462127</v>
+        <v>-0.0226311046512613</v>
       </c>
       <c r="C21">
-        <v>0.04225452101635999</v>
+        <v>0.02098662688582999</v>
       </c>
       <c r="D21">
-        <v>0.004972591423702997</v>
+        <v>0.00348973766601063</v>
       </c>
       <c r="E21">
-        <v>-0.01715110988523203</v>
+        <v>0.002191184191236747</v>
       </c>
       <c r="F21">
-        <v>0.09825829514778366</v>
+        <v>-0.06519721417974383</v>
       </c>
       <c r="G21">
-        <v>0.03565601611252271</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.04107000416144869</v>
+      </c>
+      <c r="H21">
+        <v>0.08554303452969642</v>
+      </c>
+      <c r="I21">
+        <v>-0.0792864543690268</v>
+      </c>
+      <c r="J21">
+        <v>-0.03473270557029595</v>
+      </c>
+      <c r="K21">
+        <v>0.134570586962994</v>
+      </c>
+      <c r="L21">
+        <v>-0.007272742216779544</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B22">
-        <v>-0.03317627812850308</v>
+        <v>-0.05026545939889532</v>
       </c>
       <c r="C22">
-        <v>0.002323919407095783</v>
+        <v>0.01633937777586857</v>
       </c>
       <c r="D22">
-        <v>0.01582891619427102</v>
+        <v>-0.09431941515642293</v>
       </c>
       <c r="E22">
-        <v>-0.5464486075038265</v>
+        <v>0.6529385096904948</v>
       </c>
       <c r="F22">
-        <v>-0.1484266545638386</v>
+        <v>0.05942326448459904</v>
       </c>
       <c r="G22">
-        <v>0.2949612003370456</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>0.1338518816868063</v>
+      </c>
+      <c r="H22">
+        <v>0.06238442291091598</v>
+      </c>
+      <c r="I22">
+        <v>-0.01148217348413815</v>
+      </c>
+      <c r="J22">
+        <v>0.06344261237275932</v>
+      </c>
+      <c r="K22">
+        <v>-0.04413868684177772</v>
+      </c>
+      <c r="L22">
+        <v>0.02241056840401369</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B23">
-        <v>-0.03320070480665745</v>
+        <v>-0.05069423696930197</v>
       </c>
       <c r="C23">
-        <v>0.002794727771663499</v>
+        <v>0.01693063434541286</v>
       </c>
       <c r="D23">
-        <v>0.01463538336457569</v>
+        <v>-0.09466043404626479</v>
       </c>
       <c r="E23">
-        <v>-0.5460546515715581</v>
+        <v>0.6547148794779997</v>
       </c>
       <c r="F23">
-        <v>-0.1493469777398763</v>
+        <v>0.05686707199518774</v>
       </c>
       <c r="G23">
-        <v>0.2967976756024974</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>0.134520786972387</v>
+      </c>
+      <c r="H23">
+        <v>0.05898778952368662</v>
+      </c>
+      <c r="I23">
+        <v>-0.01216508429093418</v>
+      </c>
+      <c r="J23">
+        <v>0.06196898303134314</v>
+      </c>
+      <c r="K23">
+        <v>-0.04752055913328216</v>
+      </c>
+      <c r="L23">
+        <v>0.02265330175326703</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B24">
-        <v>-0.08498310154026241</v>
+        <v>-0.08376568118763252</v>
       </c>
       <c r="C24">
-        <v>0.04883691144253732</v>
+        <v>0.06650235832802312</v>
       </c>
       <c r="D24">
-        <v>-0.01715739775752995</v>
+        <v>0.009855892478634257</v>
       </c>
       <c r="E24">
-        <v>-0.03645968251535619</v>
+        <v>-0.01457103201473351</v>
       </c>
       <c r="F24">
-        <v>-0.01762576214166972</v>
+        <v>-0.127136399531893</v>
       </c>
       <c r="G24">
-        <v>-0.1187560724515545</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.02282805845232769</v>
+      </c>
+      <c r="H24">
+        <v>0.06154866191609538</v>
+      </c>
+      <c r="I24">
+        <v>0.04251416145168224</v>
+      </c>
+      <c r="J24">
+        <v>0.07917516760352479</v>
+      </c>
+      <c r="K24">
+        <v>-0.06591611596844082</v>
+      </c>
+      <c r="L24">
+        <v>0.001048611828992776</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B25">
-        <v>-0.07536619188110999</v>
+        <v>-0.0814172056877269</v>
       </c>
       <c r="C25">
-        <v>0.02102234773570801</v>
+        <v>0.05020329607921262</v>
       </c>
       <c r="D25">
-        <v>-0.02290888828650309</v>
+        <v>0.01939031551241506</v>
       </c>
       <c r="E25">
-        <v>-0.02654047809699302</v>
+        <v>-0.02607288714080624</v>
       </c>
       <c r="F25">
-        <v>-0.006034795064330266</v>
+        <v>-0.1285828869008188</v>
       </c>
       <c r="G25">
-        <v>-0.1100600541585787</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.02862214530533104</v>
+      </c>
+      <c r="H25">
+        <v>0.0382163231288477</v>
+      </c>
+      <c r="I25">
+        <v>0.02775747774792555</v>
+      </c>
+      <c r="J25">
+        <v>0.07371682516361179</v>
+      </c>
+      <c r="K25">
+        <v>-0.06781955690910403</v>
+      </c>
+      <c r="L25">
+        <v>-0.02736639377190284</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B26">
-        <v>-0.04891799092765231</v>
+        <v>-0.04465044191812729</v>
       </c>
       <c r="C26">
-        <v>0.02671814558132391</v>
+        <v>0.01210271276439817</v>
       </c>
       <c r="D26">
-        <v>-0.0282320507616898</v>
+        <v>-0.0004318355865690489</v>
       </c>
       <c r="E26">
-        <v>-0.007960635383256339</v>
+        <v>0.009499481017140505</v>
       </c>
       <c r="F26">
-        <v>-0.01976883766927622</v>
+        <v>-0.05245068458189895</v>
       </c>
       <c r="G26">
-        <v>-0.05404653572983724</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.03426464475924274</v>
+      </c>
+      <c r="H26">
+        <v>0.009872456672924338</v>
+      </c>
+      <c r="I26">
+        <v>0.003004722417954433</v>
+      </c>
+      <c r="J26">
+        <v>-0.04002828946796114</v>
+      </c>
+      <c r="K26">
+        <v>0.09649587452825871</v>
+      </c>
+      <c r="L26">
+        <v>-0.03841251523133865</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1726,367 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B28">
-        <v>-0.07337582201111005</v>
+        <v>-0.1252988413172093</v>
       </c>
       <c r="C28">
-        <v>-0.2916383580078263</v>
+        <v>-0.3003898368703344</v>
       </c>
       <c r="D28">
-        <v>-0.07021993228867364</v>
+        <v>-0.001798325159637048</v>
       </c>
       <c r="E28">
-        <v>0.02969024345814197</v>
+        <v>-0.008546400783767777</v>
       </c>
       <c r="F28">
-        <v>0.04727937147317491</v>
+        <v>-0.0165439270130065</v>
       </c>
       <c r="G28">
-        <v>0.02419601939145194</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.003066290378911514</v>
+      </c>
+      <c r="H28">
+        <v>0.01140717115119227</v>
+      </c>
+      <c r="I28">
+        <v>-0.02654709176352118</v>
+      </c>
+      <c r="J28">
+        <v>0.01057448969299776</v>
+      </c>
+      <c r="K28">
+        <v>0.002965233555718471</v>
+      </c>
+      <c r="L28">
+        <v>0.02299575733976164</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B29">
-        <v>-0.05489857719960668</v>
+        <v>-0.04271074989300162</v>
       </c>
       <c r="C29">
-        <v>0.005298509832884229</v>
+        <v>0.02506927716088063</v>
       </c>
       <c r="D29">
-        <v>-0.01999142041550847</v>
+        <v>0.02488432053786613</v>
       </c>
       <c r="E29">
-        <v>-0.03918506384003448</v>
+        <v>0.0002497271749642553</v>
       </c>
       <c r="F29">
-        <v>-0.02891927566773229</v>
+        <v>-0.06330916902367043</v>
       </c>
       <c r="G29">
-        <v>-0.01601132404633677</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.03496925444861099</v>
+      </c>
+      <c r="H29">
+        <v>-0.008689296736796285</v>
+      </c>
+      <c r="I29">
+        <v>-0.00928938540870845</v>
+      </c>
+      <c r="J29">
+        <v>-0.04388751099361054</v>
+      </c>
+      <c r="K29">
+        <v>0.05900497059382329</v>
+      </c>
+      <c r="L29">
+        <v>-0.08075382450421797</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B30">
-        <v>-0.1181176185505959</v>
+        <v>-0.1067077042287249</v>
       </c>
       <c r="C30">
-        <v>-0.009789287653165966</v>
+        <v>0.05939515336785271</v>
       </c>
       <c r="D30">
-        <v>-0.07325105583974405</v>
+        <v>-0.02184021633243169</v>
       </c>
       <c r="E30">
-        <v>-0.1965136303966173</v>
+        <v>-0.01867488004945619</v>
       </c>
       <c r="F30">
-        <v>-0.0002405473605719715</v>
+        <v>-0.2055056454044474</v>
       </c>
       <c r="G30">
-        <v>-0.1612828674614404</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.1118800145727261</v>
+      </c>
+      <c r="H30">
+        <v>0.1077216473718383</v>
+      </c>
+      <c r="I30">
+        <v>-0.2004972678028804</v>
+      </c>
+      <c r="J30">
+        <v>0.1910789236918439</v>
+      </c>
+      <c r="K30">
+        <v>-0.07784466056837662</v>
+      </c>
+      <c r="L30">
+        <v>-0.05665035348261245</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B31">
-        <v>-0.05589709282095116</v>
+        <v>-0.04047131084713715</v>
       </c>
       <c r="C31">
-        <v>0.01659165344051048</v>
+        <v>0.04064491167426178</v>
       </c>
       <c r="D31">
-        <v>0.006085189361649641</v>
+        <v>0.003856816218700785</v>
       </c>
       <c r="E31">
-        <v>-0.0109196697299622</v>
+        <v>0.00534791309510407</v>
       </c>
       <c r="F31">
-        <v>-0.0205272246778585</v>
+        <v>-0.02403202932455512</v>
       </c>
       <c r="G31">
-        <v>0.002192358013630637</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.0159282430041473</v>
+      </c>
+      <c r="H31">
+        <v>-0.03331049974981576</v>
+      </c>
+      <c r="I31">
+        <v>0.0244702824020726</v>
+      </c>
+      <c r="J31">
+        <v>-0.01341314865460957</v>
+      </c>
+      <c r="K31">
+        <v>0.002675557324858406</v>
+      </c>
+      <c r="L31">
+        <v>-0.04732429416919194</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B32">
-        <v>-0.03121306900900341</v>
+        <v>-0.04954456835976523</v>
       </c>
       <c r="C32">
-        <v>-0.02617210622651163</v>
+        <v>0.003298012834428979</v>
       </c>
       <c r="D32">
-        <v>-0.003910665277993121</v>
+        <v>-0.02870088440613043</v>
       </c>
       <c r="E32">
-        <v>-0.07772039704913253</v>
+        <v>-0.02427253023732347</v>
       </c>
       <c r="F32">
-        <v>-0.07690753481951693</v>
+        <v>-0.07203185888804972</v>
       </c>
       <c r="G32">
-        <v>-0.06151148975956457</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.009838744008382383</v>
+      </c>
+      <c r="H32">
+        <v>0.003901347260343573</v>
+      </c>
+      <c r="I32">
+        <v>0.02122046944735848</v>
+      </c>
+      <c r="J32">
+        <v>-0.01015348070689379</v>
+      </c>
+      <c r="K32">
+        <v>0.05873267167834138</v>
+      </c>
+      <c r="L32">
+        <v>-0.06335562686843126</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B33">
-        <v>-0.1098542706557906</v>
+        <v>-0.09928147239751517</v>
       </c>
       <c r="C33">
-        <v>0.02027010375674965</v>
+        <v>0.05711699890435462</v>
       </c>
       <c r="D33">
-        <v>0.01176390899170492</v>
+        <v>7.701972006328632e-06</v>
       </c>
       <c r="E33">
-        <v>-0.001053343870865127</v>
+        <v>-0.02581837516890232</v>
       </c>
       <c r="F33">
-        <v>-0.05398175441523583</v>
+        <v>-0.08120315430986245</v>
       </c>
       <c r="G33">
-        <v>-0.03019874003268723</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.009510264285792786</v>
+      </c>
+      <c r="H33">
+        <v>0.005800069271511222</v>
+      </c>
+      <c r="I33">
+        <v>0.004856516598927552</v>
+      </c>
+      <c r="J33">
+        <v>-0.008039143496828726</v>
+      </c>
+      <c r="K33">
+        <v>-0.0006273914871284574</v>
+      </c>
+      <c r="L33">
+        <v>-0.03305530213581909</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B34">
-        <v>-0.06271021313093283</v>
+        <v>-0.0673718975760801</v>
       </c>
       <c r="C34">
-        <v>0.04918510170487348</v>
+        <v>0.05434087655418918</v>
       </c>
       <c r="D34">
-        <v>-0.004007724145298254</v>
+        <v>0.007958827317477891</v>
       </c>
       <c r="E34">
-        <v>-0.01515872339869269</v>
+        <v>-0.0235364678007881</v>
       </c>
       <c r="F34">
-        <v>-0.01447754320039688</v>
+        <v>-0.1168672457959978</v>
       </c>
       <c r="G34">
-        <v>-0.09148398684189524</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.01647119506089769</v>
+      </c>
+      <c r="H34">
+        <v>0.03301069067025478</v>
+      </c>
+      <c r="I34">
+        <v>0.02878484794951796</v>
+      </c>
+      <c r="J34">
+        <v>0.06565649651450227</v>
+      </c>
+      <c r="K34">
+        <v>-0.006707834805898863</v>
+      </c>
+      <c r="L34">
+        <v>-0.04523987867452727</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B35">
-        <v>-0.04458617317550684</v>
+        <v>-0.02223909363571305</v>
       </c>
       <c r="C35">
-        <v>0.01207502259011446</v>
+        <v>0.02094689197354032</v>
       </c>
       <c r="D35">
-        <v>0.01349559969510819</v>
+        <v>0.00346698738204417</v>
       </c>
       <c r="E35">
-        <v>-0.0164608865298159</v>
+        <v>-0.006184058056653969</v>
       </c>
       <c r="F35">
-        <v>0.02609818319052202</v>
+        <v>-0.03519002583780834</v>
       </c>
       <c r="G35">
-        <v>-0.06195310921729037</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>0.01987193984719579</v>
+      </c>
+      <c r="H35">
+        <v>0.01490404290417733</v>
+      </c>
+      <c r="I35">
+        <v>-0.02481641867950267</v>
+      </c>
+      <c r="J35">
+        <v>0.03286784834008303</v>
+      </c>
+      <c r="K35">
+        <v>0.04718730807576774</v>
+      </c>
+      <c r="L35">
+        <v>-0.05370854666316199</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B36">
-        <v>-0.03546689663636299</v>
+        <v>-0.02762864877806186</v>
       </c>
       <c r="C36">
-        <v>0.00223739958435424</v>
+        <v>0.01345062893864291</v>
       </c>
       <c r="D36">
-        <v>-0.02417206242311976</v>
+        <v>0.001285666076833225</v>
       </c>
       <c r="E36">
-        <v>-0.03455059093917316</v>
+        <v>0.01119249035777437</v>
       </c>
       <c r="F36">
-        <v>-0.01065379636993967</v>
+        <v>-0.06870203039841451</v>
       </c>
       <c r="G36">
-        <v>-0.05173461111808948</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.01916017440960186</v>
+      </c>
+      <c r="H36">
+        <v>0.008463791690584758</v>
+      </c>
+      <c r="I36">
+        <v>-0.01686518501753398</v>
+      </c>
+      <c r="J36">
+        <v>-0.02968146395869762</v>
+      </c>
+      <c r="K36">
+        <v>0.005507659347833912</v>
+      </c>
+      <c r="L36">
+        <v>-0.03021625846349266</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +2106,177 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B38">
-        <v>-0.05074207415543125</v>
+        <v>-0.02426769841251276</v>
       </c>
       <c r="C38">
-        <v>0.01891728437297047</v>
+        <v>0.03071991864813372</v>
       </c>
       <c r="D38">
-        <v>0.001757799320134935</v>
+        <v>0.008349146190156836</v>
       </c>
       <c r="E38">
-        <v>-0.01000783615620924</v>
+        <v>0.01899180156464561</v>
       </c>
       <c r="F38">
-        <v>-0.0006464071009405651</v>
+        <v>0.04779626841095092</v>
       </c>
       <c r="G38">
-        <v>-0.04737153110109665</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.02822740386090977</v>
+      </c>
+      <c r="H38">
+        <v>-0.001547537604477627</v>
+      </c>
+      <c r="I38">
+        <v>-0.02796345276647202</v>
+      </c>
+      <c r="J38">
+        <v>0.01025270802243082</v>
+      </c>
+      <c r="K38">
+        <v>0.07456476561024659</v>
+      </c>
+      <c r="L38">
+        <v>0.03654124240217526</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B39">
-        <v>-0.1068046832135707</v>
+        <v>-0.1097209161963898</v>
       </c>
       <c r="C39">
-        <v>0.04526755140888084</v>
+        <v>0.08280619201176409</v>
       </c>
       <c r="D39">
-        <v>-0.002309882944477815</v>
+        <v>0.007434441485782441</v>
       </c>
       <c r="E39">
-        <v>-0.07183411034154971</v>
+        <v>-0.09113554659292566</v>
       </c>
       <c r="F39">
-        <v>-0.03375477244617604</v>
+        <v>-0.1552119709253806</v>
       </c>
       <c r="G39">
-        <v>-0.1777460724847586</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.1033097188987615</v>
+      </c>
+      <c r="H39">
+        <v>0.04864617622543822</v>
+      </c>
+      <c r="I39">
+        <v>0.005186161357606194</v>
+      </c>
+      <c r="J39">
+        <v>0.2019906332130488</v>
+      </c>
+      <c r="K39">
+        <v>-0.1053215703863924</v>
+      </c>
+      <c r="L39">
+        <v>0.004091081874918747</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B40">
-        <v>-0.0534071402110196</v>
+        <v>-0.03330842455769446</v>
       </c>
       <c r="C40">
-        <v>0.0168906667774304</v>
+        <v>0.05837676708509459</v>
       </c>
       <c r="D40">
-        <v>0.02249421978530769</v>
+        <v>0.008885673339318945</v>
       </c>
       <c r="E40">
-        <v>-0.1113674646691223</v>
+        <v>0.03680137095149072</v>
       </c>
       <c r="F40">
-        <v>-0.03643845252634818</v>
+        <v>-0.1069161465241017</v>
       </c>
       <c r="G40">
-        <v>-0.2063880204889367</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.003980048790697042</v>
+      </c>
+      <c r="H40">
+        <v>0.0832357859569937</v>
+      </c>
+      <c r="I40">
+        <v>-0.0341192614799414</v>
+      </c>
+      <c r="J40">
+        <v>-0.01279989429837691</v>
+      </c>
+      <c r="K40">
+        <v>0.09493433003709276</v>
+      </c>
+      <c r="L40">
+        <v>0.08408693043726542</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B41">
-        <v>-0.05080065536756682</v>
+        <v>-0.03579681644674819</v>
       </c>
       <c r="C41">
-        <v>0.0346466332125421</v>
+        <v>0.03036310671593242</v>
       </c>
       <c r="D41">
-        <v>-0.00442509042111984</v>
+        <v>0.01582897795908696</v>
       </c>
       <c r="E41">
-        <v>0.001991966368276666</v>
+        <v>-0.01641852622985584</v>
       </c>
       <c r="F41">
-        <v>-0.02699971938772165</v>
+        <v>-0.020146344039175</v>
       </c>
       <c r="G41">
-        <v>-0.07886484500904381</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.01954459140814289</v>
+      </c>
+      <c r="H41">
+        <v>-0.01281035053517147</v>
+      </c>
+      <c r="I41">
+        <v>-0.004538860755137763</v>
+      </c>
+      <c r="J41">
+        <v>0.0229657056602104</v>
+      </c>
+      <c r="K41">
+        <v>0.04336752182564459</v>
+      </c>
+      <c r="L41">
+        <v>-0.02742662488921823</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2296,101 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B43">
-        <v>-0.0730123911728022</v>
+        <v>-0.05101054730072162</v>
       </c>
       <c r="C43">
-        <v>0.03282994637363025</v>
+        <v>0.0319911683862116</v>
       </c>
       <c r="D43">
-        <v>-0.02575534693959441</v>
+        <v>0.01010607327114442</v>
       </c>
       <c r="E43">
-        <v>-0.02261455701936156</v>
+        <v>0.01382503820469302</v>
       </c>
       <c r="F43">
-        <v>-0.009216167359075383</v>
+        <v>-0.01292373468540275</v>
       </c>
       <c r="G43">
-        <v>-0.03645142441211909</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.044214920189829</v>
+      </c>
+      <c r="H43">
+        <v>-0.03340369135507489</v>
+      </c>
+      <c r="I43">
+        <v>-0.02048429420382737</v>
+      </c>
+      <c r="J43">
+        <v>0.04298957048573281</v>
+      </c>
+      <c r="K43">
+        <v>0.01320514526173432</v>
+      </c>
+      <c r="L43">
+        <v>-0.04045623047889681</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B44">
-        <v>-0.06130888227774053</v>
+        <v>-0.1110327374020598</v>
       </c>
       <c r="C44">
-        <v>0.0248376686193886</v>
+        <v>0.09159125047583562</v>
       </c>
       <c r="D44">
-        <v>-0.09907114964882859</v>
+        <v>0.05212953950677642</v>
       </c>
       <c r="E44">
-        <v>-0.06304222228192795</v>
+        <v>0.09803709939647713</v>
       </c>
       <c r="F44">
-        <v>-0.02595028179759387</v>
+        <v>-0.2079228752384633</v>
       </c>
       <c r="G44">
-        <v>-0.1386626702556462</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.03074834225280655</v>
+      </c>
+      <c r="H44">
+        <v>0.1274415443171236</v>
+      </c>
+      <c r="I44">
+        <v>-0.01897842801330173</v>
+      </c>
+      <c r="J44">
+        <v>-0.1412935413420363</v>
+      </c>
+      <c r="K44">
+        <v>0.1592986197371329</v>
+      </c>
+      <c r="L44">
+        <v>0.06992023461753356</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,263 +2410,443 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B46">
-        <v>-0.04446138910665458</v>
+        <v>-0.03341803497304754</v>
       </c>
       <c r="C46">
-        <v>0.03912085121647711</v>
+        <v>0.02363052820479016</v>
       </c>
       <c r="D46">
-        <v>-0.02034323983836164</v>
+        <v>0.02279732294889584</v>
       </c>
       <c r="E46">
-        <v>-0.05623629040177801</v>
+        <v>0.04134114356063592</v>
       </c>
       <c r="F46">
-        <v>-0.01904385608331051</v>
+        <v>-0.03247433332775446</v>
       </c>
       <c r="G46">
-        <v>-0.0418650950198922</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.01886672764324939</v>
+      </c>
+      <c r="H46">
+        <v>0.03632041251914676</v>
+      </c>
+      <c r="I46">
+        <v>0.004040679616122068</v>
+      </c>
+      <c r="J46">
+        <v>-0.04447039262016093</v>
+      </c>
+      <c r="K46">
+        <v>0.06097166060909699</v>
+      </c>
+      <c r="L46">
+        <v>-0.1173715242185551</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B47">
-        <v>-0.04860932768046917</v>
+        <v>-0.04281471166209402</v>
       </c>
       <c r="C47">
-        <v>0.005633195159423</v>
+        <v>0.02507289951039071</v>
       </c>
       <c r="D47">
-        <v>-0.009980515321410793</v>
+        <v>0.005723052576546841</v>
       </c>
       <c r="E47">
-        <v>-0.06957178366714455</v>
+        <v>0.01994487242022229</v>
       </c>
       <c r="F47">
-        <v>0.002851780117407976</v>
+        <v>-0.03466703873505585</v>
       </c>
       <c r="G47">
-        <v>0.01543483460736915</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.002360241836026971</v>
+      </c>
+      <c r="H47">
+        <v>-0.01287021152293427</v>
+      </c>
+      <c r="I47">
+        <v>-0.02866273478003</v>
+      </c>
+      <c r="J47">
+        <v>-0.02270714848924952</v>
+      </c>
+      <c r="K47">
+        <v>0.05083781404854062</v>
+      </c>
+      <c r="L47">
+        <v>-0.04178554637828295</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B48">
-        <v>-0.04404507968317183</v>
+        <v>-0.04377083842250348</v>
       </c>
       <c r="C48">
-        <v>-0.003340200624422945</v>
+        <v>0.01435332390126275</v>
       </c>
       <c r="D48">
-        <v>0.003093103976912755</v>
+        <v>0.008437483378329958</v>
       </c>
       <c r="E48">
-        <v>-0.04685808782708362</v>
+        <v>0.003685045843159305</v>
       </c>
       <c r="F48">
-        <v>-0.0179851773406403</v>
+        <v>-0.06740490449827008</v>
       </c>
       <c r="G48">
-        <v>-0.02602387678198333</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.001298791057673789</v>
+      </c>
+      <c r="H48">
+        <v>0.03876528152045387</v>
+      </c>
+      <c r="I48">
+        <v>-0.01071258406764531</v>
+      </c>
+      <c r="J48">
+        <v>-0.01115965513220652</v>
+      </c>
+      <c r="K48">
+        <v>0.008338799088400172</v>
+      </c>
+      <c r="L48">
+        <v>-0.05773306890784566</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B49">
-        <v>-0.2385125395029205</v>
+        <v>-0.226467199722096</v>
       </c>
       <c r="C49">
-        <v>0.1064105121656031</v>
+        <v>0.05660449160011822</v>
       </c>
       <c r="D49">
-        <v>-0.0434726222298789</v>
+        <v>0.08982298305282047</v>
       </c>
       <c r="E49">
-        <v>0.0548123991948774</v>
+        <v>-0.03829912117568345</v>
       </c>
       <c r="F49">
-        <v>0.1557919797822193</v>
+        <v>0.2411185721699254</v>
       </c>
       <c r="G49">
-        <v>0.06506499403627548</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>-0.08669135348782467</v>
+      </c>
+      <c r="H49">
+        <v>0.1846739098524497</v>
+      </c>
+      <c r="I49">
+        <v>0.01591230754861387</v>
+      </c>
+      <c r="J49">
+        <v>0.1308419014139171</v>
+      </c>
+      <c r="K49">
+        <v>-0.1375967550211855</v>
+      </c>
+      <c r="L49">
+        <v>0.04892168680876929</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B50">
-        <v>-0.05298713087206267</v>
+        <v>-0.04598179268787674</v>
       </c>
       <c r="C50">
-        <v>0.01418024890871575</v>
+        <v>0.03015920794369972</v>
       </c>
       <c r="D50">
-        <v>0.007355432620181901</v>
+        <v>0.002013072053850326</v>
       </c>
       <c r="E50">
-        <v>-0.02336615287952253</v>
+        <v>-0.001635533136480817</v>
       </c>
       <c r="F50">
-        <v>-0.04426609667738496</v>
+        <v>-0.04715935129885382</v>
       </c>
       <c r="G50">
-        <v>0.01281489045122839</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.03544315607696445</v>
+      </c>
+      <c r="H50">
+        <v>-0.02559211176018239</v>
+      </c>
+      <c r="I50">
+        <v>0.01396516679773468</v>
+      </c>
+      <c r="J50">
+        <v>-0.01988901718515716</v>
+      </c>
+      <c r="K50">
+        <v>0.0093644425043303</v>
+      </c>
+      <c r="L50">
+        <v>-0.05612826429514858</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B51">
-        <v>-0.03448116695696212</v>
+        <v>-0.02309604126160478</v>
       </c>
       <c r="C51">
-        <v>0.01492196439266457</v>
+        <v>-0.0004825930912896567</v>
       </c>
       <c r="D51">
-        <v>-0.0117528732761319</v>
+        <v>0.0166048087613945</v>
       </c>
       <c r="E51">
-        <v>0.006771733017194338</v>
+        <v>0.002277406577332938</v>
       </c>
       <c r="F51">
-        <v>-0.001172764389385047</v>
+        <v>0.02296621598261067</v>
       </c>
       <c r="G51">
-        <v>-0.01639752923419227</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.0114151468892065</v>
+      </c>
+      <c r="H51">
+        <v>-0.009497730920011721</v>
+      </c>
+      <c r="I51">
+        <v>-0.00202043709067869</v>
+      </c>
+      <c r="J51">
+        <v>0.04727120521880483</v>
+      </c>
+      <c r="K51">
+        <v>-0.03282936178521959</v>
+      </c>
+      <c r="L51">
+        <v>0.002244651973829391</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>-0.05721913136890446</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.03102511651722994</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>-0.0004075124312802073</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>-0.005194701332577285</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>-0.021578215469224</v>
       </c>
       <c r="G52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>0.07867956615443798</v>
+      </c>
+      <c r="H52">
+        <v>-0.02040818536229773</v>
+      </c>
+      <c r="I52">
+        <v>0.05913703576155411</v>
+      </c>
+      <c r="J52">
+        <v>-0.04105180809375957</v>
+      </c>
+      <c r="K52">
+        <v>-0.02210805809772173</v>
+      </c>
+      <c r="L52">
+        <v>0.01674375397165782</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B53">
-        <v>-0.159918004284082</v>
+        <v>-0.1596654748382266</v>
       </c>
       <c r="C53">
-        <v>0.008060447533604197</v>
+        <v>0.03624486609138974</v>
       </c>
       <c r="D53">
-        <v>-0.007313613807608712</v>
+        <v>0.02269133742863502</v>
       </c>
       <c r="E53">
-        <v>0.08572953628148727</v>
+        <v>-0.0003190072570826015</v>
       </c>
       <c r="F53">
-        <v>-0.2217875459657206</v>
+        <v>0.07214930577366926</v>
       </c>
       <c r="G53">
-        <v>0.0573321691535154</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.1462920166742882</v>
+      </c>
+      <c r="H53">
+        <v>-0.1681795096754804</v>
+      </c>
+      <c r="I53">
+        <v>0.166941181233205</v>
+      </c>
+      <c r="J53">
+        <v>-0.09950192303331119</v>
+      </c>
+      <c r="K53">
+        <v>-0.01675644380327519</v>
+      </c>
+      <c r="L53">
+        <v>0.02467403560711807</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B54">
-        <v>-0.05053902949936143</v>
+        <v>-0.05632371063255858</v>
       </c>
       <c r="C54">
-        <v>0.008118602409500277</v>
+        <v>0.0403765834831411</v>
       </c>
       <c r="D54">
-        <v>-0.02525725868847825</v>
+        <v>0.0108801785591242</v>
       </c>
       <c r="E54">
-        <v>-0.04519345574037215</v>
+        <v>0.0168722541812464</v>
       </c>
       <c r="F54">
-        <v>-0.02192970659378576</v>
+        <v>-0.1289593434905749</v>
       </c>
       <c r="G54">
-        <v>-0.07251523390777029</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.02331484862801027</v>
+      </c>
+      <c r="H54">
+        <v>-0.03315747614667285</v>
+      </c>
+      <c r="I54">
+        <v>-0.04862016475147938</v>
+      </c>
+      <c r="J54">
+        <v>-0.06116092439115636</v>
+      </c>
+      <c r="K54">
+        <v>0.1069562183745218</v>
+      </c>
+      <c r="L54">
+        <v>-0.1001975237622715</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B55">
-        <v>-0.09378133722509621</v>
+        <v>-0.08982222023675908</v>
       </c>
       <c r="C55">
-        <v>0.008429109477460518</v>
+        <v>0.03419123551230688</v>
       </c>
       <c r="D55">
-        <v>-0.01525294919356006</v>
+        <v>0.01692291841540202</v>
       </c>
       <c r="E55">
-        <v>0.02039308777191824</v>
+        <v>-0.01901691887191433</v>
       </c>
       <c r="F55">
-        <v>-0.1822992957472999</v>
+        <v>-0.003645920154573082</v>
       </c>
       <c r="G55">
-        <v>0.02477247069355122</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.07278247074447976</v>
+      </c>
+      <c r="H55">
+        <v>-0.1096633341435682</v>
+      </c>
+      <c r="I55">
+        <v>0.1176798792133208</v>
+      </c>
+      <c r="J55">
+        <v>-0.05379944974531385</v>
+      </c>
+      <c r="K55">
+        <v>0.008417624232550944</v>
+      </c>
+      <c r="L55">
+        <v>-0.01465947107115981</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B56">
-        <v>-0.1597760553330171</v>
+        <v>-0.1570781588312243</v>
       </c>
       <c r="C56">
-        <v>0.001619963676648534</v>
+        <v>0.05401842819411418</v>
       </c>
       <c r="D56">
-        <v>-0.002253791503112222</v>
+        <v>0.0429326590961857</v>
       </c>
       <c r="E56">
-        <v>0.08307929252890174</v>
+        <v>-0.01578697050706553</v>
       </c>
       <c r="F56">
-        <v>-0.2233071568838895</v>
+        <v>0.04154064564831592</v>
       </c>
       <c r="G56">
-        <v>0.0839250256535493</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.1366963658098257</v>
+      </c>
+      <c r="H56">
+        <v>-0.1423689279266074</v>
+      </c>
+      <c r="I56">
+        <v>0.1681304050520303</v>
+      </c>
+      <c r="J56">
+        <v>-0.08674536953252386</v>
+      </c>
+      <c r="K56">
+        <v>0.001126811801672059</v>
+      </c>
+      <c r="L56">
+        <v>0.04120037604849728</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,1022 +2866,1697 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B58">
-        <v>-0.03243413535394534</v>
+        <v>-0.04863079043180657</v>
       </c>
       <c r="C58">
-        <v>0.04870351441290329</v>
+        <v>0.04181015595291414</v>
       </c>
       <c r="D58">
-        <v>0.03094433818579534</v>
+        <v>-0.01482338852549627</v>
       </c>
       <c r="E58">
-        <v>-0.3269142254245162</v>
+        <v>0.08620435180975373</v>
       </c>
       <c r="F58">
-        <v>0.4381481532731396</v>
+        <v>-0.02437146926982267</v>
       </c>
       <c r="G58">
-        <v>-0.1161622941844645</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.0250684935593733</v>
+      </c>
+      <c r="H58">
+        <v>0.130974461936348</v>
+      </c>
+      <c r="I58">
+        <v>-0.09784955125796234</v>
+      </c>
+      <c r="J58">
+        <v>0.1303997192665701</v>
+      </c>
+      <c r="K58">
+        <v>-0.09567150958874251</v>
+      </c>
+      <c r="L58">
+        <v>-0.3786486103947694</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B59">
-        <v>-0.1676635066236302</v>
+        <v>-0.2015553524390571</v>
       </c>
       <c r="C59">
-        <v>-0.3939598055161418</v>
+        <v>-0.3030412632262937</v>
       </c>
       <c r="D59">
-        <v>-0.09286643600650321</v>
+        <v>0.02201007114426175</v>
       </c>
       <c r="E59">
-        <v>0.07846083434758153</v>
+        <v>-0.04504739084968432</v>
       </c>
       <c r="F59">
-        <v>-0.03502587447525945</v>
+        <v>-0.02574895227192024</v>
       </c>
       <c r="G59">
-        <v>-0.004992995912955088</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.04127047131946845</v>
+      </c>
+      <c r="H59">
+        <v>-0.09945339203152001</v>
+      </c>
+      <c r="I59">
+        <v>0.08064325884222637</v>
+      </c>
+      <c r="J59">
+        <v>0.0348727013205558</v>
+      </c>
+      <c r="K59">
+        <v>0.02188732318933156</v>
+      </c>
+      <c r="L59">
+        <v>0.09882269739754798</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B60">
-        <v>-0.2679985212001696</v>
+        <v>-0.2470409480644346</v>
       </c>
       <c r="C60">
-        <v>0.07511376878963977</v>
+        <v>0.1005614020932274</v>
       </c>
       <c r="D60">
-        <v>-0.07697905026943121</v>
+        <v>0.1065415410613534</v>
       </c>
       <c r="E60">
-        <v>0.04902087248063253</v>
+        <v>-0.03974548147859115</v>
       </c>
       <c r="F60">
-        <v>0.06464350942027644</v>
+        <v>0.1422438879431424</v>
       </c>
       <c r="G60">
-        <v>0.1942295037142221</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.009133910356134041</v>
+      </c>
+      <c r="H60">
+        <v>0.05361079836846543</v>
+      </c>
+      <c r="I60">
+        <v>-0.04261752209876511</v>
+      </c>
+      <c r="J60">
+        <v>-0.07220267797523564</v>
+      </c>
+      <c r="K60">
+        <v>-0.2402407940315068</v>
+      </c>
+      <c r="L60">
+        <v>0.08633678312510343</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B61">
-        <v>-0.0909985353575084</v>
+        <v>-0.1003124839094336</v>
       </c>
       <c r="C61">
-        <v>0.01966486751601116</v>
+        <v>0.04671476157873176</v>
       </c>
       <c r="D61">
-        <v>-0.003997310277719962</v>
+        <v>0.0224544340889416</v>
       </c>
       <c r="E61">
-        <v>-0.02006113850184315</v>
+        <v>-0.04935444376640354</v>
       </c>
       <c r="F61">
-        <v>-0.02452474494203852</v>
+        <v>-0.1312598761198519</v>
       </c>
       <c r="G61">
-        <v>-0.06986930127173389</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.08039753013990635</v>
+      </c>
+      <c r="H61">
+        <v>-0.003222990971202601</v>
+      </c>
+      <c r="I61">
+        <v>0.02726128347550675</v>
+      </c>
+      <c r="J61">
+        <v>0.1155672845327508</v>
+      </c>
+      <c r="K61">
+        <v>-0.02268495002973464</v>
+      </c>
+      <c r="L61">
+        <v>-0.03618302598491661</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B62">
-        <v>-0.1454670747887765</v>
+        <v>-0.1495179186099193</v>
       </c>
       <c r="C62">
-        <v>0.02683059888191714</v>
+        <v>0.0525262532934407</v>
       </c>
       <c r="D62">
-        <v>0.03678753101962486</v>
+        <v>0.01620749206045081</v>
       </c>
       <c r="E62">
-        <v>0.1451363094357757</v>
+        <v>-0.02203290613894428</v>
       </c>
       <c r="F62">
-        <v>-0.2271868368700745</v>
+        <v>0.05999044768440335</v>
       </c>
       <c r="G62">
-        <v>0.02938317551902565</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>0.1133780669554025</v>
+      </c>
+      <c r="H62">
+        <v>-0.1150993276752602</v>
+      </c>
+      <c r="I62">
+        <v>0.1720997857544296</v>
+      </c>
+      <c r="J62">
+        <v>-0.1434968457381621</v>
+      </c>
+      <c r="K62">
+        <v>0.02685701669023683</v>
+      </c>
+      <c r="L62">
+        <v>0.01731005664820756</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B63">
-        <v>-0.04206862952964597</v>
+        <v>-0.0425377772820191</v>
       </c>
       <c r="C63">
-        <v>0.01558392010319389</v>
+        <v>0.01914701906640678</v>
       </c>
       <c r="D63">
-        <v>0.006188980325937048</v>
+        <v>-0.01678075747329441</v>
       </c>
       <c r="E63">
-        <v>-0.006487180333258478</v>
+        <v>-0.01035613871026147</v>
       </c>
       <c r="F63">
-        <v>-0.01268822303615164</v>
+        <v>-0.05958265402761679</v>
       </c>
       <c r="G63">
-        <v>-0.0297945313363288</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.005565865282963918</v>
+      </c>
+      <c r="H63">
+        <v>-0.003182991584389983</v>
+      </c>
+      <c r="I63">
+        <v>-0.01206266215296843</v>
+      </c>
+      <c r="J63">
+        <v>0.007251900995987525</v>
+      </c>
+      <c r="K63">
+        <v>-0.004721532282986781</v>
+      </c>
+      <c r="L63">
+        <v>-0.05796011317289428</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B64">
-        <v>-0.1050771662342349</v>
+        <v>-0.09728021676515636</v>
       </c>
       <c r="C64">
-        <v>0.01712487842038184</v>
+        <v>0.04231171213188808</v>
       </c>
       <c r="D64">
-        <v>-0.0446513754198506</v>
+        <v>0.04929040967388056</v>
       </c>
       <c r="E64">
-        <v>-0.04465259833073118</v>
+        <v>0.01594149850271681</v>
       </c>
       <c r="F64">
-        <v>0.01123566495893029</v>
+        <v>-0.0817549153690826</v>
       </c>
       <c r="G64">
-        <v>-0.04902377923351755</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.02859533897252387</v>
+      </c>
+      <c r="H64">
+        <v>0.03553769883355419</v>
+      </c>
+      <c r="I64">
+        <v>-0.09417316873485902</v>
+      </c>
+      <c r="J64">
+        <v>0.05576225106667239</v>
+      </c>
+      <c r="K64">
+        <v>-0.02792304049030683</v>
+      </c>
+      <c r="L64">
+        <v>0.02635643181201407</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B65">
-        <v>-0.1200218764443025</v>
+        <v>-0.1187437001348232</v>
       </c>
       <c r="C65">
-        <v>0.03951796626947806</v>
+        <v>0.03111008083632602</v>
       </c>
       <c r="D65">
-        <v>-0.02438200648519795</v>
+        <v>-0.0181653988099266</v>
       </c>
       <c r="E65">
-        <v>-0.07216482010444462</v>
+        <v>-0.01138561597510625</v>
       </c>
       <c r="F65">
-        <v>0.2067892065851205</v>
+        <v>0.0414100051454198</v>
       </c>
       <c r="G65">
-        <v>0.2273089844077243</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.04368278958822694</v>
+      </c>
+      <c r="H65">
+        <v>-0.06471745102882029</v>
+      </c>
+      <c r="I65">
+        <v>-0.4054392850190571</v>
+      </c>
+      <c r="J65">
+        <v>-0.4542366549226624</v>
+      </c>
+      <c r="K65">
+        <v>-0.3465154705503369</v>
+      </c>
+      <c r="L65">
+        <v>-0.1763864861774458</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B66">
-        <v>-0.1588899909340432</v>
+        <v>-0.1396532324985496</v>
       </c>
       <c r="C66">
-        <v>0.05192006078746805</v>
+        <v>0.1092235706799945</v>
       </c>
       <c r="D66">
-        <v>0.01806412230885574</v>
+        <v>0.00944757967606989</v>
       </c>
       <c r="E66">
-        <v>-0.02241614113167983</v>
+        <v>-0.1097920790627091</v>
       </c>
       <c r="F66">
-        <v>-0.05839583331013106</v>
+        <v>-0.1440532710086872</v>
       </c>
       <c r="G66">
-        <v>-0.3279942387919506</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.1312505984469392</v>
+      </c>
+      <c r="H66">
+        <v>0.0762896990648505</v>
+      </c>
+      <c r="I66">
+        <v>0.05094904557829916</v>
+      </c>
+      <c r="J66">
+        <v>0.2039759635767637</v>
+      </c>
+      <c r="K66">
+        <v>-0.1292654964100459</v>
+      </c>
+      <c r="L66">
+        <v>0.08836049865571283</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B67">
-        <v>-0.09896152839963639</v>
+        <v>-0.07050257785667721</v>
       </c>
       <c r="C67">
-        <v>0.03892153029511294</v>
+        <v>0.04512980451143991</v>
       </c>
       <c r="D67">
-        <v>-0.01505941771029735</v>
+        <v>0.009606097213022219</v>
       </c>
       <c r="E67">
-        <v>0.01576290155108194</v>
+        <v>0.01935411459093283</v>
       </c>
       <c r="F67">
-        <v>-0.001468587305939293</v>
+        <v>0.02191457481146557</v>
       </c>
       <c r="G67">
-        <v>-0.04669419838464175</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.01692381694571057</v>
+      </c>
+      <c r="H67">
+        <v>-0.01881287638656625</v>
+      </c>
+      <c r="I67">
+        <v>-0.04906809290663593</v>
+      </c>
+      <c r="J67">
+        <v>0.05966922257623453</v>
+      </c>
+      <c r="K67">
+        <v>0.05645944517590103</v>
+      </c>
+      <c r="L67">
+        <v>0.114349297942352</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B68">
-        <v>-0.05323890864524055</v>
+        <v>-0.1038075175475527</v>
       </c>
       <c r="C68">
-        <v>-0.2941276285284557</v>
+        <v>-0.2790589558753467</v>
       </c>
       <c r="D68">
-        <v>-0.04027245960513497</v>
+        <v>-0.01931812786245734</v>
       </c>
       <c r="E68">
-        <v>0.002773346391954007</v>
+        <v>-0.01506874112919373</v>
       </c>
       <c r="F68">
-        <v>0.00190722734256558</v>
+        <v>-0.04403182383563563</v>
       </c>
       <c r="G68">
-        <v>0.0268120798932686</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.0119096054639768</v>
+      </c>
+      <c r="H68">
+        <v>-0.02256365767743271</v>
+      </c>
+      <c r="I68">
+        <v>-0.01700729620005558</v>
+      </c>
+      <c r="J68">
+        <v>-0.01453368318120339</v>
+      </c>
+      <c r="K68">
+        <v>-0.02286819355585459</v>
+      </c>
+      <c r="L68">
+        <v>-0.04992232415916177</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B69">
-        <v>-0.04662161730262795</v>
+        <v>-0.0401983244794322</v>
       </c>
       <c r="C69">
-        <v>0.01756502727236339</v>
+        <v>0.002933376459576867</v>
       </c>
       <c r="D69">
-        <v>-0.009294017640188536</v>
+        <v>0.01223827509874425</v>
       </c>
       <c r="E69">
-        <v>-0.004078748874027666</v>
+        <v>0.005496524020094208</v>
       </c>
       <c r="F69">
-        <v>-0.02245921463179545</v>
+        <v>-0.01092857835012103</v>
       </c>
       <c r="G69">
-        <v>-0.02526099179038076</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.03923858434696034</v>
+      </c>
+      <c r="H69">
+        <v>-0.02662774874065473</v>
+      </c>
+      <c r="I69">
+        <v>-0.01746471030733518</v>
+      </c>
+      <c r="J69">
+        <v>-0.01144730526633924</v>
+      </c>
+      <c r="K69">
+        <v>0.0204202760479812</v>
+      </c>
+      <c r="L69">
+        <v>-0.01749034900320981</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B70">
-        <v>-0.07657116043258379</v>
+        <v>-0.04985668281626832</v>
       </c>
       <c r="C70">
-        <v>0.008073042689990515</v>
+        <v>0.01401372077625865</v>
       </c>
       <c r="D70">
-        <v>-0.04192386261392631</v>
+        <v>0.03380022151251551</v>
       </c>
       <c r="E70">
-        <v>0.0188187773966393</v>
+        <v>-0.02442611019869501</v>
       </c>
       <c r="F70">
-        <v>0.09523441091508739</v>
+        <v>-0.01998798289156116</v>
       </c>
       <c r="G70">
-        <v>0.005691126032217581</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>-0.01320866220089962</v>
+      </c>
+      <c r="H70">
+        <v>0.001057661581233921</v>
+      </c>
+      <c r="I70">
+        <v>-0.1464694302590776</v>
+      </c>
+      <c r="J70">
+        <v>-0.03721392722268324</v>
+      </c>
+      <c r="K70">
+        <v>0.309755796043055</v>
+      </c>
+      <c r="L70">
+        <v>-0.1011527984963712</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B71">
-        <v>-0.06110810932157829</v>
+        <v>-0.1192662147266352</v>
       </c>
       <c r="C71">
-        <v>-0.2874952093022886</v>
+        <v>-0.2868194896369864</v>
       </c>
       <c r="D71">
-        <v>-0.06361273443018858</v>
+        <v>0.01144641207738109</v>
       </c>
       <c r="E71">
-        <v>0.005421974019649653</v>
+        <v>-0.00244727617547344</v>
       </c>
       <c r="F71">
-        <v>0.01247046439272599</v>
+        <v>-0.05451957487165366</v>
       </c>
       <c r="G71">
-        <v>-0.004033538917371749</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.03987292328651984</v>
+      </c>
+      <c r="H71">
+        <v>0.005864959303107574</v>
+      </c>
+      <c r="I71">
+        <v>-0.02135648096273721</v>
+      </c>
+      <c r="J71">
+        <v>0.01055580907101989</v>
+      </c>
+      <c r="K71">
+        <v>-0.0303341610843423</v>
+      </c>
+      <c r="L71">
+        <v>-0.01147443366942696</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B72">
-        <v>-0.1579315805916621</v>
+        <v>-0.1496291963940583</v>
       </c>
       <c r="C72">
-        <v>-0.03564605791029826</v>
+        <v>0.01328099235946075</v>
       </c>
       <c r="D72">
-        <v>0.2348497985352229</v>
+        <v>-0.09425084122984333</v>
       </c>
       <c r="E72">
-        <v>0.02134705936102268</v>
+        <v>-0.02931035910975147</v>
       </c>
       <c r="F72">
-        <v>-0.04729460500663574</v>
+        <v>0.007825226426579349</v>
       </c>
       <c r="G72">
-        <v>-0.05121469255292033</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.07313431895822299</v>
+      </c>
+      <c r="H72">
+        <v>-0.0343054402692165</v>
+      </c>
+      <c r="I72">
+        <v>0.01583276796345931</v>
+      </c>
+      <c r="J72">
+        <v>-0.1243142745673844</v>
+      </c>
+      <c r="K72">
+        <v>-0.07997168471800674</v>
+      </c>
+      <c r="L72">
+        <v>0.07066273933069021</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B73">
-        <v>-0.2932458812342386</v>
+        <v>-0.2402475304995932</v>
       </c>
       <c r="C73">
-        <v>0.1817968262050872</v>
+        <v>0.1228945154727456</v>
       </c>
       <c r="D73">
-        <v>-0.05306726450269771</v>
+        <v>0.1616534490925148</v>
       </c>
       <c r="E73">
-        <v>0.1209728891867683</v>
+        <v>-0.1058252714864751</v>
       </c>
       <c r="F73">
-        <v>0.2973524535853269</v>
+        <v>0.4477764557440635</v>
       </c>
       <c r="G73">
-        <v>0.2247039912719887</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.01928393995961462</v>
+      </c>
+      <c r="H73">
+        <v>0.2234570577003548</v>
+      </c>
+      <c r="I73">
+        <v>-0.1240592657338113</v>
+      </c>
+      <c r="J73">
+        <v>0.2712264378059697</v>
+      </c>
+      <c r="K73">
+        <v>-0.1873766324587298</v>
+      </c>
+      <c r="L73">
+        <v>0.05354368418936409</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B74">
-        <v>-0.09561722620710411</v>
+        <v>-0.1116534679560449</v>
       </c>
       <c r="C74">
-        <v>0.03602887895172648</v>
+        <v>0.06567976800842126</v>
       </c>
       <c r="D74">
-        <v>0.002588177601179462</v>
+        <v>0.003286678007880665</v>
       </c>
       <c r="E74">
-        <v>0.02528157517819526</v>
+        <v>-0.004931861224200896</v>
       </c>
       <c r="F74">
-        <v>-0.09042333220584239</v>
+        <v>0.04874787274734375</v>
       </c>
       <c r="G74">
-        <v>0.03970696302697287</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.1252759893257643</v>
+      </c>
+      <c r="H74">
+        <v>-0.06721119995762295</v>
+      </c>
+      <c r="I74">
+        <v>0.08114533756137737</v>
+      </c>
+      <c r="J74">
+        <v>-0.05372273023272938</v>
+      </c>
+      <c r="K74">
+        <v>-0.001710859454772456</v>
+      </c>
+      <c r="L74">
+        <v>-0.006582395658270891</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B75">
-        <v>-0.09410892252094581</v>
+        <v>-0.1038661089584247</v>
       </c>
       <c r="C75">
-        <v>0.01763172804439624</v>
+        <v>0.04684696651184059</v>
       </c>
       <c r="D75">
-        <v>0.0210477681719943</v>
+        <v>-0.001201368139904381</v>
       </c>
       <c r="E75">
-        <v>0.05147303137469313</v>
+        <v>-0.00466204628246781</v>
       </c>
       <c r="F75">
-        <v>-0.101782603871658</v>
+        <v>0.03765174411319279</v>
       </c>
       <c r="G75">
-        <v>0.07662330269249915</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.04258819466711056</v>
+      </c>
+      <c r="H75">
+        <v>-0.09648906909271139</v>
+      </c>
+      <c r="I75">
+        <v>0.1009495598999334</v>
+      </c>
+      <c r="J75">
+        <v>-0.05356883817700934</v>
+      </c>
+      <c r="K75">
+        <v>0.004622618035723258</v>
+      </c>
+      <c r="L75">
+        <v>-0.003655827690165606</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B76">
-        <v>-0.1345766715666023</v>
+        <v>-0.06547702046481256</v>
       </c>
       <c r="C76">
-        <v>0.03460233462766387</v>
+        <v>0.03429681800444145</v>
       </c>
       <c r="D76">
-        <v>-0.007274744152485135</v>
+        <v>0.02687923786969371</v>
       </c>
       <c r="E76">
-        <v>0.01606015598920709</v>
+        <v>0.003209116376140815</v>
       </c>
       <c r="F76">
-        <v>-0.2223830225497835</v>
+        <v>0.06955321865152186</v>
       </c>
       <c r="G76">
-        <v>0.1153405509348545</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.04780638501079553</v>
+      </c>
+      <c r="H76">
+        <v>-0.142661756490238</v>
+      </c>
+      <c r="I76">
+        <v>0.1067416325368858</v>
+      </c>
+      <c r="J76">
+        <v>-0.002334813436839552</v>
+      </c>
+      <c r="K76">
+        <v>0.03434202254498746</v>
+      </c>
+      <c r="L76">
+        <v>-0.02881577906090791</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B77">
-        <v>-0.08709012585997115</v>
+        <v>-0.07413822653263723</v>
       </c>
       <c r="C77">
-        <v>0.003516541059378714</v>
+        <v>0.03369433588911405</v>
       </c>
       <c r="D77">
-        <v>-0.04666136204521169</v>
+        <v>0.04075672633591137</v>
       </c>
       <c r="E77">
-        <v>-0.07583062784178494</v>
+        <v>-0.007125000242360619</v>
       </c>
       <c r="F77">
-        <v>0.1110704901969428</v>
+        <v>-0.2279893973964493</v>
       </c>
       <c r="G77">
-        <v>-0.2956919283233574</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.0377221580534496</v>
+      </c>
+      <c r="H77">
+        <v>-0.001633518921360005</v>
+      </c>
+      <c r="I77">
+        <v>-0.2248252614596975</v>
+      </c>
+      <c r="J77">
+        <v>0.000799562873184856</v>
+      </c>
+      <c r="K77">
+        <v>0.0035293383085119</v>
+      </c>
+      <c r="L77">
+        <v>0.6577224810069107</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B78">
-        <v>-0.2049644202045616</v>
+        <v>-0.1595337724633127</v>
       </c>
       <c r="C78">
-        <v>0.06254388122068368</v>
+        <v>0.1089534581644197</v>
       </c>
       <c r="D78">
-        <v>-0.06365472400337603</v>
+        <v>-0.04680892044635045</v>
       </c>
       <c r="E78">
-        <v>-0.1898905472035852</v>
+        <v>0.1786634506760354</v>
       </c>
       <c r="F78">
-        <v>-0.01589182312638754</v>
+        <v>-0.1589449531110861</v>
       </c>
       <c r="G78">
-        <v>-0.04413020936236515</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.7472183205302151</v>
+      </c>
+      <c r="H78">
+        <v>-0.4069071473261892</v>
+      </c>
+      <c r="I78">
+        <v>0.1745728129696403</v>
+      </c>
+      <c r="J78">
+        <v>0.1449852049695506</v>
+      </c>
+      <c r="K78">
+        <v>-0.18534694694733</v>
+      </c>
+      <c r="L78">
+        <v>0.01463615723914537</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B79">
-        <v>-0.1370135829959556</v>
+        <v>-0.1330237519266779</v>
       </c>
       <c r="C79">
-        <v>0.01684420278257391</v>
+        <v>0.0484437690010947</v>
       </c>
       <c r="D79">
-        <v>0.007302285734661181</v>
+        <v>0.01618426718755149</v>
       </c>
       <c r="E79">
-        <v>0.03324273577449782</v>
+        <v>0.00537666110437513</v>
       </c>
       <c r="F79">
-        <v>-0.1714469192134114</v>
+        <v>0.01015780059935317</v>
       </c>
       <c r="G79">
-        <v>0.005176758916205519</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>0.1118934241576499</v>
+      </c>
+      <c r="H79">
+        <v>-0.09999368920537711</v>
+      </c>
+      <c r="I79">
+        <v>0.1153015370314128</v>
+      </c>
+      <c r="J79">
+        <v>-0.0891614666639228</v>
+      </c>
+      <c r="K79">
+        <v>-0.0003045853659635692</v>
+      </c>
+      <c r="L79">
+        <v>0.006074417319569371</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B80">
-        <v>-0.03629446546982056</v>
+        <v>-0.06425672255805276</v>
       </c>
       <c r="C80">
-        <v>0.01118297817270313</v>
+        <v>0.04265220175526608</v>
       </c>
       <c r="D80">
-        <v>-0.006907762856713469</v>
+        <v>0.0272104604463921</v>
       </c>
       <c r="E80">
-        <v>0.04033783012203251</v>
+        <v>-0.06795586529305489</v>
       </c>
       <c r="F80">
-        <v>0.02925160623520798</v>
+        <v>-0.03910845171771749</v>
       </c>
       <c r="G80">
-        <v>-0.03979603484002174</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.006613197020455719</v>
+      </c>
+      <c r="H80">
+        <v>-0.07193262123529484</v>
+      </c>
+      <c r="I80">
+        <v>-0.04591725351314831</v>
+      </c>
+      <c r="J80">
+        <v>0.08008995401576356</v>
+      </c>
+      <c r="K80">
+        <v>0.08980911508609211</v>
+      </c>
+      <c r="L80">
+        <v>-0.2326483295238101</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B81">
-        <v>-0.1087494823900214</v>
+        <v>-0.1286642491347811</v>
       </c>
       <c r="C81">
-        <v>0.01689575580959841</v>
+        <v>0.05626363972976432</v>
       </c>
       <c r="D81">
-        <v>-0.01032392855753225</v>
+        <v>0.02044400802713226</v>
       </c>
       <c r="E81">
-        <v>0.03589206092766194</v>
+        <v>0.006127214790611305</v>
       </c>
       <c r="F81">
-        <v>-0.1363630868649618</v>
+        <v>-0.001138287944897319</v>
       </c>
       <c r="G81">
-        <v>0.04352330022112599</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.07290083411996431</v>
+      </c>
+      <c r="H81">
+        <v>-0.05434560655810958</v>
+      </c>
+      <c r="I81">
+        <v>0.1163273019472477</v>
+      </c>
+      <c r="J81">
+        <v>-0.06552601258420009</v>
+      </c>
+      <c r="K81">
+        <v>0.01091620873938086</v>
+      </c>
+      <c r="L81">
+        <v>0.001490205960105572</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B82">
-        <v>-0.1080890225983525</v>
+        <v>-0.1367764814844709</v>
       </c>
       <c r="C82">
-        <v>0.02564845094621045</v>
+        <v>0.0509731178870603</v>
       </c>
       <c r="D82">
-        <v>-0.05021686453802437</v>
+        <v>0.04259943709237966</v>
       </c>
       <c r="E82">
-        <v>0.08032375555135726</v>
+        <v>-0.01288593793112876</v>
       </c>
       <c r="F82">
-        <v>-0.2292812203496916</v>
+        <v>0.03459571298578552</v>
       </c>
       <c r="G82">
-        <v>0.001236734076853502</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>0.1540674279365113</v>
+      </c>
+      <c r="H82">
+        <v>-0.1116611356173701</v>
+      </c>
+      <c r="I82">
+        <v>0.2134888934425008</v>
+      </c>
+      <c r="J82">
+        <v>-0.03607704439602143</v>
+      </c>
+      <c r="K82">
+        <v>0.1174103584832364</v>
+      </c>
+      <c r="L82">
+        <v>-0.01176156650418697</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B83">
-        <v>-0.1031325881123626</v>
+        <v>-0.09264141799495275</v>
       </c>
       <c r="C83">
-        <v>0.06594023449428921</v>
+        <v>0.1066508865265053</v>
       </c>
       <c r="D83">
-        <v>-0.05882076298830673</v>
+        <v>0.01966790101816799</v>
       </c>
       <c r="E83">
-        <v>0.001101158185565195</v>
+        <v>-0.00846101054890044</v>
       </c>
       <c r="F83">
-        <v>0.06526922801015046</v>
+        <v>-0.07587217152288067</v>
       </c>
       <c r="G83">
-        <v>-0.1094982522398326</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.02234298680366011</v>
+      </c>
+      <c r="H83">
+        <v>-0.09036591889669365</v>
+      </c>
+      <c r="I83">
+        <v>-0.1463436226271561</v>
+      </c>
+      <c r="J83">
+        <v>0.03494412281767516</v>
+      </c>
+      <c r="K83">
+        <v>0.1883270351073817</v>
+      </c>
+      <c r="L83">
+        <v>-0.05785614056722618</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B84">
-        <v>-0.05689738570230762</v>
+        <v>-0.05357748601574611</v>
       </c>
       <c r="C84">
-        <v>0.02346364638420659</v>
+        <v>-0.03374234435157999</v>
       </c>
       <c r="D84">
-        <v>0.04533687579772035</v>
+        <v>0.005338382470144263</v>
       </c>
       <c r="E84">
-        <v>-0.04301838455911692</v>
+        <v>-0.02120769545652574</v>
       </c>
       <c r="F84">
-        <v>-0.03562785110937907</v>
+        <v>-0.0006267632380337942</v>
       </c>
       <c r="G84">
-        <v>0.0290443133761538</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>-0.1759960662405302</v>
+      </c>
+      <c r="H84">
+        <v>0.2334818027816218</v>
+      </c>
+      <c r="I84">
+        <v>0.206594859644143</v>
+      </c>
+      <c r="J84">
+        <v>0.1755744129344106</v>
+      </c>
+      <c r="K84">
+        <v>0.02618388462429073</v>
+      </c>
+      <c r="L84">
+        <v>-0.2012221804800628</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B85">
-        <v>-0.09992138751345821</v>
+        <v>-0.1141657763637308</v>
       </c>
       <c r="C85">
-        <v>0.02722616946751513</v>
+        <v>0.04131900445843753</v>
       </c>
       <c r="D85">
-        <v>-0.0197021089075493</v>
+        <v>0.04388037735512926</v>
       </c>
       <c r="E85">
-        <v>0.04000186260385357</v>
+        <v>0.0005986902411916423</v>
       </c>
       <c r="F85">
-        <v>-0.1896722992675263</v>
+        <v>0.008253162416368543</v>
       </c>
       <c r="G85">
-        <v>0.01350936081159011</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.1017125323078565</v>
+      </c>
+      <c r="H85">
+        <v>-0.09941406371735988</v>
+      </c>
+      <c r="I85">
+        <v>0.1234211964917619</v>
+      </c>
+      <c r="J85">
+        <v>-0.08922424031087145</v>
+      </c>
+      <c r="K85">
+        <v>-0.02084542322878313</v>
+      </c>
+      <c r="L85">
+        <v>0.03143629417438797</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B86">
-        <v>-0.06226761670289233</v>
+        <v>-0.08547799213674093</v>
       </c>
       <c r="C86">
-        <v>0.02805667003784253</v>
+        <v>0.02691809944715558</v>
       </c>
       <c r="D86">
-        <v>-0.04597760182707417</v>
+        <v>0.1065270570704766</v>
       </c>
       <c r="E86">
-        <v>-0.05121456849217525</v>
+        <v>0.04007710748720525</v>
       </c>
       <c r="F86">
-        <v>0.03943389105892445</v>
+        <v>-0.06488894157659306</v>
       </c>
       <c r="G86">
-        <v>-0.1200840342866885</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.2669868338420073</v>
+      </c>
+      <c r="H86">
+        <v>0.572436664792028</v>
+      </c>
+      <c r="I86">
+        <v>0.3673926547813585</v>
+      </c>
+      <c r="J86">
+        <v>-0.425406551207378</v>
+      </c>
+      <c r="K86">
+        <v>0.03721851506454416</v>
+      </c>
+      <c r="L86">
+        <v>0.03131276468428927</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B87">
-        <v>-0.1051396754484812</v>
+        <v>-0.1135647381728701</v>
       </c>
       <c r="C87">
-        <v>0.05638195168658814</v>
+        <v>0.09875367520768286</v>
       </c>
       <c r="D87">
-        <v>-0.01960753231374092</v>
+        <v>0.04007790418691314</v>
       </c>
       <c r="E87">
-        <v>-0.05985589302346891</v>
+        <v>0.03116208431756983</v>
       </c>
       <c r="F87">
-        <v>-0.008224924901599645</v>
+        <v>-0.1210499284113742</v>
       </c>
       <c r="G87">
-        <v>-0.09905352353433412</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.02012955174644646</v>
+      </c>
+      <c r="H87">
+        <v>0.05391118171957181</v>
+      </c>
+      <c r="I87">
+        <v>-0.1358666685642871</v>
+      </c>
+      <c r="J87">
+        <v>-0.07120232011996903</v>
+      </c>
+      <c r="K87">
+        <v>0.1661687827217159</v>
+      </c>
+      <c r="L87">
+        <v>0.2488534672949706</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B88">
-        <v>-0.06469328638143217</v>
+        <v>-0.0570158428888175</v>
       </c>
       <c r="C88">
-        <v>0.03216718605616708</v>
+        <v>0.04882104049578404</v>
       </c>
       <c r="D88">
-        <v>-0.02473736242748436</v>
+        <v>0.02921542420927387</v>
       </c>
       <c r="E88">
-        <v>-0.01279626238859012</v>
+        <v>-0.02808835817809087</v>
       </c>
       <c r="F88">
-        <v>0.001572685310751395</v>
+        <v>-0.03458877676394941</v>
       </c>
       <c r="G88">
-        <v>-0.0703069684993837</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.04265855934508452</v>
+      </c>
+      <c r="H88">
+        <v>-0.002086793186050805</v>
+      </c>
+      <c r="I88">
+        <v>-0.02193511083638698</v>
+      </c>
+      <c r="J88">
+        <v>0.04370053965044634</v>
+      </c>
+      <c r="K88">
+        <v>-0.01229052318117125</v>
+      </c>
+      <c r="L88">
+        <v>-0.0657698716906507</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B89">
-        <v>-0.1102792417638529</v>
+        <v>-0.1757822813717939</v>
       </c>
       <c r="C89">
-        <v>-0.3607967415321288</v>
+        <v>-0.3723350021351051</v>
       </c>
       <c r="D89">
-        <v>-0.1181109887921387</v>
+        <v>0.0356474879224156</v>
       </c>
       <c r="E89">
-        <v>-0.02588155469089021</v>
+        <v>0.0474613247156491</v>
       </c>
       <c r="F89">
-        <v>0.07798108394827219</v>
+        <v>-0.03139129539003176</v>
       </c>
       <c r="G89">
-        <v>-0.02278955759311868</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.03712506369930303</v>
+      </c>
+      <c r="H89">
+        <v>0.004927473579449244</v>
+      </c>
+      <c r="I89">
+        <v>-0.06170912322294597</v>
+      </c>
+      <c r="J89">
+        <v>0.0636486078421294</v>
+      </c>
+      <c r="K89">
+        <v>0.05695762492309643</v>
+      </c>
+      <c r="L89">
+        <v>-0.03540448636093631</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B90">
-        <v>-0.0869714591523795</v>
+        <v>-0.1371250770355031</v>
       </c>
       <c r="C90">
-        <v>-0.2854446514199108</v>
+        <v>-0.2748207424591811</v>
       </c>
       <c r="D90">
-        <v>-0.05939272473215306</v>
+        <v>0.01515511731159703</v>
       </c>
       <c r="E90">
-        <v>-0.04153420641982206</v>
+        <v>0.0001791669336205334</v>
       </c>
       <c r="F90">
-        <v>0.04433117073471151</v>
+        <v>-0.04455289142961887</v>
       </c>
       <c r="G90">
-        <v>-0.07877961339469815</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.02274970801978979</v>
+      </c>
+      <c r="H90">
+        <v>0.05737371675972738</v>
+      </c>
+      <c r="I90">
+        <v>-0.02440247140614106</v>
+      </c>
+      <c r="J90">
+        <v>0.03785648517780065</v>
+      </c>
+      <c r="K90">
+        <v>-0.04090331693039364</v>
+      </c>
+      <c r="L90">
+        <v>0.01320064168693178</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B91">
-        <v>-0.08409997850683933</v>
+        <v>-0.0807961825117727</v>
       </c>
       <c r="C91">
-        <v>0.02596169230119899</v>
+        <v>0.03898110193332584</v>
       </c>
       <c r="D91">
-        <v>-0.0004570768039513796</v>
+        <v>0.02513046775901307</v>
       </c>
       <c r="E91">
-        <v>0.02724450749246774</v>
+        <v>0.006912210479049878</v>
       </c>
       <c r="F91">
-        <v>-0.06953782640696325</v>
+        <v>0.03106867986602629</v>
       </c>
       <c r="G91">
-        <v>0.07394803075925857</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.05934705443888387</v>
+      </c>
+      <c r="H91">
+        <v>-0.05929025951741297</v>
+      </c>
+      <c r="I91">
+        <v>0.07938738568033124</v>
+      </c>
+      <c r="J91">
+        <v>-0.03851808592873966</v>
+      </c>
+      <c r="K91">
+        <v>0.006424845880884212</v>
+      </c>
+      <c r="L91">
+        <v>-0.01807930289633797</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B92">
-        <v>-0.08367939091051917</v>
+        <v>-0.1489303578506083</v>
       </c>
       <c r="C92">
-        <v>-0.3373938013077837</v>
+        <v>-0.3264060503362314</v>
       </c>
       <c r="D92">
-        <v>-0.07522193593527454</v>
+        <v>0.006957609084167722</v>
       </c>
       <c r="E92">
-        <v>-0.02506539381245382</v>
+        <v>0.03862716897456892</v>
       </c>
       <c r="F92">
-        <v>0.03862956575433582</v>
+        <v>-0.06569017308510165</v>
       </c>
       <c r="G92">
-        <v>0.06515179851234153</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.007813369060325226</v>
+      </c>
+      <c r="H92">
+        <v>-0.03685878369317647</v>
+      </c>
+      <c r="I92">
+        <v>0.01286547965039487</v>
+      </c>
+      <c r="J92">
+        <v>0.04567825997069674</v>
+      </c>
+      <c r="K92">
+        <v>0.005356095416274156</v>
+      </c>
+      <c r="L92">
+        <v>-0.0344949576245456</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B93">
-        <v>-0.09762760402038934</v>
+        <v>-0.141066377765728</v>
       </c>
       <c r="C93">
-        <v>-0.2908325061368437</v>
+        <v>-0.3102863633451918</v>
       </c>
       <c r="D93">
-        <v>-0.05849072773153192</v>
+        <v>0.02666458319641169</v>
       </c>
       <c r="E93">
-        <v>-0.01396731053414688</v>
+        <v>-0.02599440751100047</v>
       </c>
       <c r="F93">
-        <v>0.01979084617717797</v>
+        <v>-0.01553090464252977</v>
       </c>
       <c r="G93">
-        <v>0.01052491849622046</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.02168340471781696</v>
+      </c>
+      <c r="H93">
+        <v>0.05107980888006454</v>
+      </c>
+      <c r="I93">
+        <v>-0.00376543476436824</v>
+      </c>
+      <c r="J93">
+        <v>-0.02305120918824544</v>
+      </c>
+      <c r="K93">
+        <v>0.002291149819694402</v>
+      </c>
+      <c r="L93">
+        <v>-0.01753523503027412</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B94">
-        <v>-0.09157880270358598</v>
+        <v>-0.1208509515089004</v>
       </c>
       <c r="C94">
-        <v>0.04664194276375903</v>
+        <v>0.05645883287035794</v>
       </c>
       <c r="D94">
-        <v>0.01074539658245697</v>
+        <v>0.0122593291035726</v>
       </c>
       <c r="E94">
-        <v>0.02282879842788545</v>
+        <v>0.01294967264769086</v>
       </c>
       <c r="F94">
-        <v>-0.1285799876752904</v>
+        <v>0.0502524727917435</v>
       </c>
       <c r="G94">
-        <v>0.0550544058744399</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.08230897460099845</v>
+      </c>
+      <c r="H94">
+        <v>-0.07732713820739942</v>
+      </c>
+      <c r="I94">
+        <v>0.1153414480055129</v>
+      </c>
+      <c r="J94">
+        <v>-0.0224963253705895</v>
+      </c>
+      <c r="K94">
+        <v>-0.01962811773713048</v>
+      </c>
+      <c r="L94">
+        <v>-0.05170449018497964</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B95">
-        <v>-0.1316886406992804</v>
+        <v>-0.1237990311951352</v>
       </c>
       <c r="C95">
-        <v>0.07028041388691501</v>
+        <v>0.0701063368441593</v>
       </c>
       <c r="D95">
-        <v>-0.06165497239138833</v>
+        <v>0.0452942269470762</v>
       </c>
       <c r="E95">
-        <v>-0.0162231643544469</v>
+        <v>0.0217238300082574</v>
       </c>
       <c r="F95">
-        <v>0.05620384653998817</v>
+        <v>-0.06669105539662301</v>
       </c>
       <c r="G95">
-        <v>-0.1036719109020699</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.1241507562824931</v>
+      </c>
+      <c r="H95">
+        <v>0.1885816121623985</v>
+      </c>
+      <c r="I95">
+        <v>-0.07517260253255413</v>
+      </c>
+      <c r="J95">
+        <v>-0.08154546253248461</v>
+      </c>
+      <c r="K95">
+        <v>0.08766789046578823</v>
+      </c>
+      <c r="L95">
+        <v>-0.09585023251520504</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>0.004982743823834439</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.00468630474839061</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>0.0006435876551163697</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>-0.0002699549783604376</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>-0.005341120717846723</v>
       </c>
       <c r="G96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+        <v>-0.01894443065810025</v>
+      </c>
+      <c r="H96">
+        <v>-0.01679978179139572</v>
+      </c>
+      <c r="I96">
+        <v>-0.01124039541371377</v>
+      </c>
+      <c r="J96">
+        <v>0.002825584366824393</v>
+      </c>
+      <c r="K96">
+        <v>-0.005674602017719994</v>
+      </c>
+      <c r="L96">
+        <v>0.01489514380216571</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B97">
-        <v>-0.2097329467824544</v>
+        <v>-0.1951426336170113</v>
       </c>
       <c r="C97">
-        <v>-0.1555199910209789</v>
+        <v>0.0414769790943413</v>
       </c>
       <c r="D97">
-        <v>0.897874179759347</v>
+        <v>-0.9321661633957921</v>
       </c>
       <c r="E97">
-        <v>-0.01179065308588744</v>
+        <v>-0.1530951645542536</v>
       </c>
       <c r="F97">
-        <v>0.08639135151137203</v>
+        <v>0.06886476259656671</v>
       </c>
       <c r="G97">
-        <v>-0.03417793934692804</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>-0.01640136032585717</v>
+      </c>
+      <c r="H97">
+        <v>0.1223730776534805</v>
+      </c>
+      <c r="I97">
+        <v>0.02485670959422391</v>
+      </c>
+      <c r="J97">
+        <v>-0.01341306517123721</v>
+      </c>
+      <c r="K97">
+        <v>0.04226780824250382</v>
+      </c>
+      <c r="L97">
+        <v>0.04376411352441205</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B98">
-        <v>-0.3039954401864041</v>
+        <v>-0.2562479335450861</v>
       </c>
       <c r="C98">
-        <v>0.09604618537748093</v>
+        <v>0.0822865801876146</v>
       </c>
       <c r="D98">
-        <v>-0.07361561248253025</v>
+        <v>0.04115173609520283</v>
       </c>
       <c r="E98">
-        <v>0.2178444680407791</v>
+        <v>0.01811672616601441</v>
       </c>
       <c r="F98">
-        <v>0.2586289454199833</v>
+        <v>0.3836221092821475</v>
       </c>
       <c r="G98">
-        <v>0.2242743446915317</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.2075806681160619</v>
+      </c>
+      <c r="H98">
+        <v>-0.07019861057544313</v>
+      </c>
+      <c r="I98">
+        <v>-0.2149237073548634</v>
+      </c>
+      <c r="J98">
+        <v>0.07362433045448079</v>
+      </c>
+      <c r="K98">
+        <v>0.5268248912262389</v>
+      </c>
+      <c r="L98">
+        <v>0.002656037886768122</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B99">
-        <v>-0.08263007408418019</v>
+        <v>-0.06454168581496851</v>
       </c>
       <c r="C99">
-        <v>0.04004672498279654</v>
+        <v>0.0319868043725681</v>
       </c>
       <c r="D99">
-        <v>-0.006244603471883456</v>
+        <v>0.01686734720172535</v>
       </c>
       <c r="E99">
-        <v>0.006183483639137006</v>
+        <v>0.008712398681149033</v>
       </c>
       <c r="F99">
-        <v>-0.02552054072505535</v>
+        <v>0.0177193176030633</v>
       </c>
       <c r="G99">
-        <v>-0.008362359162833777</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>0.008563830086065894</v>
+      </c>
+      <c r="H99">
+        <v>-0.03127332605521877</v>
+      </c>
+      <c r="I99">
+        <v>0.00633904509410003</v>
+      </c>
+      <c r="J99">
+        <v>0.0373212905677325</v>
+      </c>
+      <c r="K99">
+        <v>-0.01592946559222884</v>
+      </c>
+      <c r="L99">
+        <v>-0.004736349612596318</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>-0.004168105637589556</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.005581433488435761</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>-0.06293107385970546</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>-0.02110886589412913</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>-0.04482825344478172</v>
       </c>
       <c r="G100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+        <v>0.005393448849859064</v>
+      </c>
+      <c r="H100">
+        <v>-0.0009320745063143947</v>
+      </c>
+      <c r="I100">
+        <v>-0.05592065255111514</v>
+      </c>
+      <c r="J100">
+        <v>0.01868737359449591</v>
+      </c>
+      <c r="K100">
+        <v>0.07425018336314756</v>
+      </c>
+      <c r="L100">
+        <v>-0.02973299248071969</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B101">
-        <v>-0.05514881770453228</v>
+        <v>-0.0425596519908365</v>
       </c>
       <c r="C101">
-        <v>0.004834621422095812</v>
+        <v>0.02535027438281351</v>
       </c>
       <c r="D101">
-        <v>-0.02026162832720049</v>
+        <v>0.02514411324887597</v>
       </c>
       <c r="E101">
-        <v>-0.03754436461495144</v>
+        <v>-0.0009110369139719133</v>
       </c>
       <c r="F101">
-        <v>-0.02785435389186078</v>
+        <v>-0.06110574153312512</v>
       </c>
       <c r="G101">
-        <v>-0.01573820445881005</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.03287821173119665</v>
+      </c>
+      <c r="H101">
+        <v>-0.0113007025946965</v>
+      </c>
+      <c r="I101">
+        <v>-0.006930274756119602</v>
+      </c>
+      <c r="J101">
+        <v>-0.04031028775278134</v>
+      </c>
+      <c r="K101">
+        <v>0.05968444304637271</v>
+      </c>
+      <c r="L101">
+        <v>-0.08071942698316775</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3046,10 +4576,25 @@
       <c r="G102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4614,25 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4650,21 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
         <v>0</v>
       </c>
     </row>
